--- a/MarsFramework/Test conditions and cases.xlsx
+++ b/MarsFramework/Test conditions and cases.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVP Studio\MARsCompetitionTask\marsframework-master\MarsFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBDFBF9-DAAA-4939-8669-25DEBC6E975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72152DDB-18D7-49EA-BE18-AF8765F16EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4432D654-219C-4C85-90A8-F2FAD9AEDDAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Conditions-Share Skill" sheetId="1" r:id="rId1"/>
     <sheet name="Test Cases-Share Skill" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Conditions-Manage Listings" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Cases- Manage Listings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="306">
   <si>
     <t>ID</t>
   </si>
@@ -62,15 +64,6 @@
     <t>Test Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Complexity </t>
-  </si>
-  <si>
-    <t>Defect ID</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
     <t>TC_001</t>
   </si>
   <si>
@@ -2365,13 +2358,415 @@
   </si>
   <si>
     <t xml:space="preserve">User shouldn't be able to save the details </t>
+  </si>
+  <si>
+    <t>Manage Listings</t>
+  </si>
+  <si>
+    <t>Validate "Manage Listings" link on Home Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to Click on "Manage Listings" link in the home page</t>
+  </si>
+  <si>
+    <t>Validate the "Listings" in Manage Listings page</t>
+  </si>
+  <si>
+    <t>Check if user is able to view all the listings entered</t>
+  </si>
+  <si>
+    <t>Validate "View" icon in the listing</t>
+  </si>
+  <si>
+    <t>Check if the user is able to click on view service in any listing</t>
+  </si>
+  <si>
+    <t>Check if the user is able to view the service details</t>
+  </si>
+  <si>
+    <t>Validate "Edit" icon in the listing</t>
+  </si>
+  <si>
+    <t>Check if the user is able to click on edit service</t>
+  </si>
+  <si>
+    <t>Check if the user is able to edit the service</t>
+  </si>
+  <si>
+    <t>Validate "Delete" icon in the listing</t>
+  </si>
+  <si>
+    <t>Check if the user is able to click on delete the service</t>
+  </si>
+  <si>
+    <t>Check if the user is able to click on No button</t>
+  </si>
+  <si>
+    <t>Check if the user is able to click on Yes button</t>
+  </si>
+  <si>
+    <t>Test Seps</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>User should be able to see the login page</t>
+  </si>
+  <si>
+    <t>User should be able to Login in to  the Application.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on "Manage Listings" in Profile page</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Manage Listings" and navigate to the page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View the listings</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to view all the listings that has been entered in shareskills page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "view" eye icon</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to click on eye icon to view the service</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> View the service details</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to view the service details</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "edit"  icon</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to click on edit icon to edit the service</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 6:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit the service listed</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to make changes to service which has been listed earlier</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "delete"  icon</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to click on delete icon to delete the service</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alert message appears</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to see an alert message appearing with a NO and Yes button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "No"  button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to click on No button and the service should not be deleted</t>
+  </si>
+  <si>
+    <t>TC_005_04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Yes"  button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to click on Yes button and the service should be deleted from the listings and a pop up message appears mentioning the service has been deleted</t>
+  </si>
+  <si>
+    <t>Step 1: Launch the URL: "http://localhost:5000/"</t>
+  </si>
+  <si>
+    <t>Step 3: Login with Valid Credentials Username: harshagopinathan@gmail.com Password:123123</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch the URL: "http://localhost:5000/"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Navigate to the Login page.</t>
+  </si>
+  <si>
+    <t>User should be able to see the login option</t>
+  </si>
+  <si>
+    <t>User Should be able to Navigate to the Loginpage.</t>
+  </si>
+  <si>
+    <t>Step 2: Click on "Sign in" in Loginpage</t>
+  </si>
+  <si>
+    <t>User should be able to view all the listings  in manage listings page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on " eye icon" to view</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to see an alert message appearing with Yes button to confirm deletion and No button to cancel </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Check if the user is getting message for to confirm  delete action</t>
+  </si>
+  <si>
+    <t>Expected results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2402,23 +2797,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2426,11 +2820,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2498,9 +2901,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2515,6 +2915,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2831,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AA81AE-3E08-4E68-B725-96C73659D46E}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2843,71 +3268,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2915,263 +3340,263 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D37" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D43" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D44" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D45" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D49" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D53" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D54" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D57" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3183,2915 +3608,3270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC67B0A9-EB7E-441E-8146-EC91A2CD5ACB}">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView tabSelected="1" topLeftCell="B295" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="49.6640625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>56</v>
-      </c>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="29"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="29" t="s">
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="28" t="s">
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="27" t="s">
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="27" t="s">
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="30" t="s">
+      <c r="D31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
-      <c r="C32" s="27"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="19"/>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>59</v>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="29" t="s">
-        <v>52</v>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="30" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="27" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
-      <c r="C39" s="27"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="19"/>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>59</v>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D42" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="29" t="s">
-        <v>52</v>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="30" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="27" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
-      <c r="C46" s="27"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="29" t="s">
+      <c r="D52" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D56" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="28" t="s">
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="32"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="29" t="s">
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="32"/>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="E68" s="32"/>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="32"/>
+    </row>
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="32"/>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="32"/>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="29" t="s">
+      <c r="D75" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="32"/>
+    </row>
+    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D77" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="28" t="s">
+      <c r="E77" s="32"/>
+    </row>
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="32"/>
+    </row>
+    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E79" s="32"/>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="32"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="32"/>
+    </row>
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="29" t="s">
+      <c r="E83" s="32"/>
+    </row>
+    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="32"/>
+    </row>
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="32"/>
+    </row>
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="32"/>
+    </row>
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="32"/>
+    </row>
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="E89" s="32"/>
+    </row>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="32"/>
+    </row>
+    <row r="91" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" s="32"/>
+    </row>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" s="32"/>
+    </row>
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="32"/>
+    </row>
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" s="32"/>
+    </row>
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="29" t="s">
+      <c r="D96" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="32"/>
+    </row>
+    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D98" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="28" t="s">
+      <c r="E98" s="32"/>
+    </row>
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="32"/>
+    </row>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="32"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="32"/>
+    </row>
+    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="29" t="s">
+      <c r="E104" s="32"/>
+    </row>
+    <row r="105" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E105" s="32"/>
+    </row>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="32"/>
+    </row>
+    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107" s="32"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="E108" s="32"/>
+    </row>
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="E110" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" s="32"/>
+    </row>
+    <row r="112" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112" s="32"/>
+    </row>
+    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="32"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" s="32"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E114" s="32"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
+      <c r="E115" s="32"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="29" t="s">
+      <c r="D117" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118" s="32"/>
+    </row>
+    <row r="119" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D119" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="28" t="s">
+      <c r="E119" s="32"/>
+    </row>
+    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120" s="32"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="32"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="32"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="32"/>
+    </row>
+    <row r="123" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="29" t="s">
+      <c r="E124" s="32"/>
+    </row>
+    <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="32"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125" s="32"/>
+    </row>
+    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" s="32"/>
+    </row>
+    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E127" s="32"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
+      <c r="C128" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128" s="32"/>
+    </row>
+    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="E130" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="32"/>
+    </row>
+    <row r="132" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" s="32"/>
+    </row>
+    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="32"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" s="32"/>
+    </row>
+    <row r="134" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="32"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E135" s="32"/>
+    </row>
+    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="29" t="s">
+      <c r="D137" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" s="32"/>
+    </row>
+    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138" s="32"/>
+    </row>
+    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D139" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="28" t="s">
+      <c r="E139" s="32"/>
+    </row>
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E140" s="32"/>
+    </row>
+    <row r="141" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E141" s="32"/>
+    </row>
+    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" s="32"/>
+    </row>
+    <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" s="32"/>
+    </row>
+    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="32"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="29" t="s">
+      <c r="E145" s="32"/>
+    </row>
+    <row r="146" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E146" s="32"/>
+    </row>
+    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="32"/>
+    </row>
+    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148" s="32"/>
+    </row>
+    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E149" s="32"/>
+    </row>
+    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="E151" s="32"/>
+    </row>
+    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E152" s="32"/>
+    </row>
+    <row r="153" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E153" s="32"/>
+    </row>
+    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="32"/>
+    </row>
+    <row r="155" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E155" s="32"/>
+    </row>
+    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="32"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E156" s="32"/>
+    </row>
+    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="29" t="s">
+      <c r="D158" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E158" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="31"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" s="32"/>
+    </row>
+    <row r="160" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="31"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D160" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="28" t="s">
+      <c r="E160" s="32"/>
+    </row>
+    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="31"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" s="32"/>
+    </row>
+    <row r="162" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="31"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E162" s="32"/>
+    </row>
+    <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E164" s="32"/>
+    </row>
+    <row r="165" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="31"/>
+      <c r="B165" s="32"/>
+      <c r="C165" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D165" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="29" t="s">
+      <c r="E165" s="32"/>
+    </row>
+    <row r="166" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="31"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D166" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" s="32"/>
+    </row>
+    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="31"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E167" s="32"/>
+    </row>
+    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="31"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E168" s="32"/>
+    </row>
+    <row r="169" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C169" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="E171" s="32"/>
+    </row>
+    <row r="172" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="31"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E172" s="32"/>
+    </row>
+    <row r="173" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A173" s="31"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" s="32"/>
+    </row>
+    <row r="174" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="31"/>
+      <c r="B174" s="32"/>
+      <c r="C174" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" s="32"/>
+    </row>
+    <row r="175" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="31"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E175" s="32"/>
+    </row>
+    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B176" s="32"/>
+      <c r="C176" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E176" s="32"/>
+    </row>
+    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C178" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="29" t="s">
+      <c r="D178" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E178" s="32"/>
+    </row>
+    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="31"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D179" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E179" s="32"/>
+    </row>
+    <row r="180" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A180" s="31"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D180" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="28" t="s">
+      <c r="E180" s="32"/>
+    </row>
+    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="31"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D181" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E181" s="32"/>
+    </row>
+    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="31"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D182" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E182" s="32"/>
+    </row>
+    <row r="183" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B183" s="32"/>
+      <c r="C183" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E183" s="32"/>
+    </row>
+    <row r="185" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B185" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E185" s="32"/>
+    </row>
+    <row r="186" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="31"/>
+      <c r="B186" s="32"/>
+      <c r="C186" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D186" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="29" t="s">
+      <c r="E186" s="32"/>
+    </row>
+    <row r="187" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="31"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D187" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="19"/>
-    </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-    </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B116" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" t="s">
-        <v>140</v>
-      </c>
-      <c r="D128" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="25"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="25"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B137" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D139" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B144" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="25"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D145" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D147" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="25"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="25"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="25"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D155" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="25"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D158" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="26"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D159" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A160" s="26"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="26"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D161" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="26"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D162" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B164" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C164" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D164" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
-      <c r="B165" s="25"/>
-      <c r="C165" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="26"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="26"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="26"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="31" t="s">
+      <c r="E187" s="32"/>
+    </row>
+    <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="31"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E188" s="32"/>
+    </row>
+    <row r="189" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="31"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D189" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D168" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C169" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A171" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="26"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="26"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D173" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="26"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D174" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="26"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D175" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B176" s="25"/>
-      <c r="C176" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D176" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C178" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D178" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="26"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D179" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="26"/>
-      <c r="B180" s="25"/>
-      <c r="C180" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D180" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="26"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D181" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="26"/>
-      <c r="B182" s="25"/>
-      <c r="C182" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D182" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B183" s="25"/>
-      <c r="C183" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D183" s="23" t="s">
+      <c r="E189" s="32"/>
+    </row>
+    <row r="190" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="31"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="16" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B185" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C185" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D185" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="26"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D186" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="26"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D187" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="26"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D188" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="26"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D189" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A190" s="26"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="16" t="s">
-        <v>186</v>
-      </c>
       <c r="D190" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="E190" s="32"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
     </row>
-    <row r="192" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B192" s="25" t="s">
+    <row r="192" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B192" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E192" s="32"/>
+    </row>
+    <row r="193" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="31"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E193" s="32"/>
+    </row>
+    <row r="194" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A194" s="31"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D194" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E194" s="32"/>
+    </row>
+    <row r="195" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="31"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E195" s="32"/>
+    </row>
+    <row r="196" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="31"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D196" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E196" s="32"/>
+    </row>
+    <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="31"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D197" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C192" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D192" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="26"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="29" t="s">
+      <c r="E197" s="32"/>
+    </row>
+    <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E199" s="32"/>
+    </row>
+    <row r="200" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="31"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E200" s="32"/>
+    </row>
+    <row r="201" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A201" s="31"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D193" s="23" t="s">
+      <c r="D201" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A194" s="26"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28" t="s">
+      <c r="E201" s="32"/>
+    </row>
+    <row r="202" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="31"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E202" s="32"/>
+    </row>
+    <row r="203" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="31"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E203" s="32"/>
+    </row>
+    <row r="204" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="31"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E204" s="32"/>
+    </row>
+    <row r="206" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B206" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D206" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E206" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="31"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D207" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D194" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="26"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="29" t="s">
+      <c r="E207" s="32"/>
+    </row>
+    <row r="208" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A208" s="31"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D208" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E208" s="32"/>
+    </row>
+    <row r="209" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="31"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E209" s="32"/>
+    </row>
+    <row r="210" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A210" s="31"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D210" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E210" s="32"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="31"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="16"/>
+      <c r="E211" s="32"/>
+    </row>
+    <row r="212" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D212" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D195" s="23" t="s">
+      <c r="E212" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="31"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E213" s="32"/>
+    </row>
+    <row r="214" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A214" s="31"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D214" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E214" s="32"/>
+    </row>
+    <row r="215" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="31"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E215" s="32"/>
+    </row>
+    <row r="216" spans="1:5" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A216" s="31"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D216" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E216" s="32"/>
+    </row>
+    <row r="217" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="31"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D217" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E217" s="32"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="31"/>
+      <c r="B218" s="32"/>
+      <c r="E218" s="32"/>
+    </row>
+    <row r="219" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B219" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C219" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="26"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D196" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="26"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D197" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B199" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C199" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="26"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29" t="s">
+      <c r="D219" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E219" s="32"/>
+    </row>
+    <row r="220" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="31"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D220" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E220" s="32"/>
+    </row>
+    <row r="221" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A221" s="31"/>
+      <c r="B221" s="32"/>
+      <c r="C221" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D200" s="23" t="s">
+      <c r="D221" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A201" s="26"/>
-      <c r="B201" s="25"/>
-      <c r="C201" s="28" t="s">
+      <c r="E221" s="32"/>
+    </row>
+    <row r="222" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="31"/>
+      <c r="B222" s="32"/>
+      <c r="C222" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E222" s="32"/>
+    </row>
+    <row r="223" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A223" s="31"/>
+      <c r="B223" s="32"/>
+      <c r="C223" t="s">
+        <v>207</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E223" s="32"/>
+    </row>
+    <row r="224" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="31"/>
+      <c r="B224" s="32"/>
+      <c r="C224" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E224" s="32"/>
+    </row>
+    <row r="225" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A225" s="31"/>
+      <c r="B225" s="32"/>
+      <c r="C225" t="s">
+        <v>209</v>
+      </c>
+      <c r="D225" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E225" s="32"/>
+    </row>
+    <row r="226" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D226" s="23"/>
+    </row>
+    <row r="227" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B227" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D227" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E227" s="32"/>
+    </row>
+    <row r="228" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="31"/>
+      <c r="B228" s="32"/>
+      <c r="C228" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D228" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D201" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="26"/>
-      <c r="B202" s="25"/>
-      <c r="C202" s="29" t="s">
+      <c r="E228" s="32"/>
+    </row>
+    <row r="229" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A229" s="31"/>
+      <c r="B229" s="32"/>
+      <c r="C229" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E229" s="32"/>
+    </row>
+    <row r="230" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="31"/>
+      <c r="B230" s="32"/>
+      <c r="C230" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E230" s="32"/>
+    </row>
+    <row r="231" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A231" s="31"/>
+      <c r="B231" s="32"/>
+      <c r="C231" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D231" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E231" s="32"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="31"/>
+      <c r="B232" s="32"/>
+      <c r="C232" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D232" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E232" s="32"/>
+    </row>
+    <row r="234" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B234" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D234" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D202" s="23" t="s">
+      <c r="E234" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="31"/>
+      <c r="B235" s="32"/>
+      <c r="C235" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D235" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E235" s="32"/>
+    </row>
+    <row r="236" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A236" s="31"/>
+      <c r="B236" s="32"/>
+      <c r="C236" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D236" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E236" s="32"/>
+    </row>
+    <row r="237" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="31"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D237" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E237" s="32"/>
+    </row>
+    <row r="238" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A238" s="31"/>
+      <c r="B238" s="32"/>
+      <c r="C238" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E238" s="32"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="31"/>
+      <c r="B239" s="32"/>
+      <c r="E239" s="32"/>
+    </row>
+    <row r="241" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A241" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B241" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C241" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="26"/>
-      <c r="B203" s="25"/>
-      <c r="C203" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D203" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="26"/>
-      <c r="B204" s="25"/>
-      <c r="C204" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D204" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B206" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C206" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D206" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="26"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29" t="s">
+      <c r="D241" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E241" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="31"/>
+      <c r="B242" s="32"/>
+      <c r="C242" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D242" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E242" s="32"/>
+    </row>
+    <row r="243" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A243" s="31"/>
+      <c r="B243" s="32"/>
+      <c r="C243" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D207" s="23" t="s">
+      <c r="D243" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A208" s="26"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="28" t="s">
+      <c r="E243" s="32"/>
+    </row>
+    <row r="244" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="31"/>
+      <c r="B244" s="32"/>
+      <c r="C244" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D244" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E244" s="32"/>
+    </row>
+    <row r="245" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A245" s="31"/>
+      <c r="B245" s="32"/>
+      <c r="C245" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D245" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E245" s="32"/>
+    </row>
+    <row r="246" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="31"/>
+      <c r="B246" s="32"/>
+      <c r="C246" t="s">
+        <v>218</v>
+      </c>
+      <c r="D246" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E246" s="32"/>
+    </row>
+    <row r="248" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B248" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D248" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A249" s="31"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D249" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D208" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="26"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="29" t="s">
+      <c r="E249" s="32"/>
+    </row>
+    <row r="250" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A250" s="31"/>
+      <c r="B250" s="32"/>
+      <c r="C250" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D250" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E250" s="32"/>
+    </row>
+    <row r="251" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="31"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D251" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E251" s="32"/>
+    </row>
+    <row r="252" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A252" s="31"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E252" s="32"/>
+    </row>
+    <row r="253" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="31"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D253" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E253" s="32"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E254" s="32"/>
+    </row>
+    <row r="255" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B255" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D255" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D209" s="23" t="s">
+      <c r="E255" s="32"/>
+    </row>
+    <row r="256" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A256" s="31"/>
+      <c r="B256" s="32"/>
+      <c r="C256" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D256" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E256" s="32"/>
+    </row>
+    <row r="257" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="31"/>
+      <c r="B257" s="32"/>
+      <c r="C257" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D257" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E257" s="32"/>
+    </row>
+    <row r="258" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A258" s="31"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D258" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E258" s="32"/>
+    </row>
+    <row r="259" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A259" s="31"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D259" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E259" s="32"/>
+    </row>
+    <row r="260" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="31"/>
+      <c r="B260" s="32"/>
+      <c r="C260" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E260" s="32"/>
+    </row>
+    <row r="262" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B262" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C262" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="26"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D210" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="26"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="16"/>
-    </row>
-    <row r="212" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B212" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C212" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D212" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="26"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="29" t="s">
+      <c r="D262" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E262" s="32"/>
+    </row>
+    <row r="263" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="31"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D263" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E263" s="32"/>
+    </row>
+    <row r="264" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A264" s="31"/>
+      <c r="B264" s="32"/>
+      <c r="C264" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D213" s="23" t="s">
+      <c r="D264" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A214" s="26"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="28" t="s">
+      <c r="E264" s="32"/>
+    </row>
+    <row r="265" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A265" s="31"/>
+      <c r="B265" s="32"/>
+      <c r="C265" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D265" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E265" s="32"/>
+    </row>
+    <row r="266" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="31"/>
+      <c r="B266" s="32"/>
+      <c r="C266" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D266" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E266" s="32"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="31"/>
+      <c r="B267" s="32"/>
+      <c r="E267" s="32"/>
+    </row>
+    <row r="268" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A268" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B268" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E268" s="32"/>
+    </row>
+    <row r="269" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A269" s="31"/>
+      <c r="B269" s="32"/>
+      <c r="C269" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D269" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D214" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="26"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="29" t="s">
+      <c r="E269" s="32"/>
+    </row>
+    <row r="270" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A270" s="31"/>
+      <c r="B270" s="32"/>
+      <c r="C270" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D270" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E270" s="32"/>
+    </row>
+    <row r="271" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A271" s="31"/>
+      <c r="B271" s="32"/>
+      <c r="C271" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E271" s="32"/>
+    </row>
+    <row r="272" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A272" s="31"/>
+      <c r="B272" s="32"/>
+      <c r="C272" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E272" s="32"/>
+    </row>
+    <row r="273" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A273" s="31"/>
+      <c r="B273" s="32"/>
+      <c r="C273" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D273" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E273" s="32"/>
+    </row>
+    <row r="275" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A275" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B275" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C275" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D275" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D215" s="23" t="s">
+      <c r="E275" s="32"/>
+    </row>
+    <row r="276" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A276" s="31"/>
+      <c r="B276" s="32"/>
+      <c r="C276" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E276" s="32"/>
+    </row>
+    <row r="277" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A277" s="31"/>
+      <c r="B277" s="32"/>
+      <c r="C277" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E277" s="32"/>
+    </row>
+    <row r="278" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A278" s="31"/>
+      <c r="B278" s="32"/>
+      <c r="C278" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D278" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E278" s="32"/>
+    </row>
+    <row r="279" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A279" s="31"/>
+      <c r="B279" s="32"/>
+      <c r="C279" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D279" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E279" s="32"/>
+    </row>
+    <row r="280" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="31"/>
+      <c r="B280" s="32"/>
+      <c r="C280" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D280" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E280" s="32"/>
+    </row>
+    <row r="282" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A282" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B282" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C282" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A216" s="26"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D216" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="26"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D217" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="26"/>
-      <c r="B218" s="25"/>
-    </row>
-    <row r="219" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="B219" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C219" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D219" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="26"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="29" t="s">
+      <c r="D282" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E282" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A283" s="31"/>
+      <c r="B283" s="32"/>
+      <c r="C283" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D283" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E283" s="32"/>
+    </row>
+    <row r="284" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="31"/>
+      <c r="B284" s="32"/>
+      <c r="C284" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D220" s="23" t="s">
+      <c r="D284" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A221" s="26"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D221" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="26"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D222" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A223" s="26"/>
-      <c r="B223" s="25"/>
-      <c r="C223" t="s">
-        <v>210</v>
-      </c>
-      <c r="D223" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="26"/>
-      <c r="B224" s="25"/>
-      <c r="C224" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D224" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A225" s="26"/>
-      <c r="B225" s="25"/>
-      <c r="C225" t="s">
-        <v>212</v>
-      </c>
-      <c r="D225" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="23"/>
-    </row>
-    <row r="227" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B227" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D227" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="26"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D228" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A229" s="26"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D229" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A230" s="26"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D230" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A231" s="26"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D231" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="26"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D232" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A234" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B234" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C234" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D234" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="26"/>
-      <c r="B235" s="25"/>
-      <c r="C235" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D235" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A236" s="26"/>
-      <c r="B236" s="25"/>
-      <c r="C236" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D236" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="26"/>
-      <c r="B237" s="25"/>
-      <c r="C237" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D237" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A238" s="26"/>
-      <c r="B238" s="25"/>
-      <c r="C238" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D238" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="26"/>
-      <c r="B239" s="25"/>
-    </row>
-    <row r="241" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B241" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C241" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D241" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="26"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D242" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A243" s="26"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D243" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="26"/>
-      <c r="B244" s="25"/>
-      <c r="C244" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D244" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A245" s="26"/>
-      <c r="B245" s="25"/>
-      <c r="C245" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D245" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="26"/>
-      <c r="B246" s="25"/>
-      <c r="C246" t="s">
-        <v>221</v>
-      </c>
-      <c r="D246" s="23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B248" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C248" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D248" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A249" s="26"/>
-      <c r="B249" s="25"/>
-      <c r="C249" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D249" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A250" s="26"/>
-      <c r="B250" s="25"/>
-      <c r="C250" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D250" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="26"/>
-      <c r="B251" s="25"/>
-      <c r="C251" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D251" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A252" s="26"/>
-      <c r="B252" s="25"/>
-      <c r="C252" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D252" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="26"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D253" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A255" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B255" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C255" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D255" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="26"/>
-      <c r="B256" s="25"/>
-      <c r="C256" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D256" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A257" s="26"/>
-      <c r="B257" s="25"/>
-      <c r="C257" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D257" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A258" s="26"/>
-      <c r="B258" s="25"/>
-      <c r="C258" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D258" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="26"/>
-      <c r="B259" s="25"/>
-      <c r="C259" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D259" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A260" s="26"/>
-      <c r="B260" s="25"/>
-      <c r="C260" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D260" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B262" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C262" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D262" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A263" s="26"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D263" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A264" s="26"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D264" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A265" s="26"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D265" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A266" s="26"/>
-      <c r="B266" s="25"/>
-      <c r="C266" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D266" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="26"/>
-      <c r="B267" s="25"/>
-    </row>
-    <row r="268" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A268" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B268" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C268" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A269" s="26"/>
-      <c r="B269" s="25"/>
-      <c r="C269" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A270" s="26"/>
-      <c r="B270" s="25"/>
-      <c r="C270" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D270" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A271" s="26"/>
-      <c r="B271" s="25"/>
-      <c r="C271" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D271" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A272" s="26"/>
-      <c r="B272" s="25"/>
-      <c r="C272" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A273" s="26"/>
-      <c r="B273" s="25"/>
-      <c r="C273" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D273" s="23" t="s">
+      <c r="E284" s="32"/>
+    </row>
+    <row r="285" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A285" s="31"/>
+      <c r="B285" s="32"/>
+      <c r="C285" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D285" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E285" s="32"/>
+    </row>
+    <row r="286" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A286" s="31"/>
+      <c r="B286" s="32"/>
+      <c r="C286" s="30" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A275" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B275" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C275" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="26"/>
-      <c r="B276" s="25"/>
-      <c r="C276" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="26"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D277" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A278" s="26"/>
-      <c r="B278" s="25"/>
-      <c r="C278" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D278" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A279" s="26"/>
-      <c r="B279" s="25"/>
-      <c r="C279" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A280" s="26"/>
-      <c r="B280" s="25"/>
-      <c r="C280" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D280" s="23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A282" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="B282" s="25" t="s">
+      <c r="D286" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C282" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A283" s="26"/>
-      <c r="B283" s="25"/>
-      <c r="C283" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="26"/>
-      <c r="B284" s="25"/>
-      <c r="C284" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A285" s="26"/>
-      <c r="B285" s="25"/>
-      <c r="C285" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D285" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A286" s="26"/>
-      <c r="B286" s="25"/>
-      <c r="C286" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="26"/>
-      <c r="B287" s="25"/>
+      <c r="E286" s="32"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="31"/>
+      <c r="B287" s="32"/>
       <c r="C287" s="24"/>
       <c r="D287" s="23"/>
-    </row>
-    <row r="288" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A288" s="26" t="s">
+      <c r="E287" s="32"/>
+    </row>
+    <row r="288" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A288" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B288" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C288" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E288" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A289" s="31"/>
+      <c r="B289" s="32"/>
+      <c r="C289" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D289" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E289" s="32"/>
+    </row>
+    <row r="290" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A290" s="31"/>
+      <c r="B290" s="32"/>
+      <c r="C290" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D290" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E290" s="32"/>
+    </row>
+    <row r="291" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A291" s="31"/>
+      <c r="B291" s="32"/>
+      <c r="C291" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D291" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E291" s="32"/>
+    </row>
+    <row r="292" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A292" s="31"/>
+      <c r="B292" s="32"/>
+      <c r="C292" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D292" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E292" s="32"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="31"/>
+      <c r="B293" s="32"/>
+      <c r="E293" s="32"/>
+    </row>
+    <row r="294" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A294" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="B288" s="25" t="s">
+      <c r="B294" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C294" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D294" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E294" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A295" s="31"/>
+      <c r="B295" s="32"/>
+      <c r="C295" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D295" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E295" s="32"/>
+    </row>
+    <row r="296" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A296" s="31"/>
+      <c r="B296" s="32"/>
+      <c r="C296" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D296" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E296" s="32"/>
+    </row>
+    <row r="297" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A297" s="31"/>
+      <c r="B297" s="32"/>
+      <c r="C297" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D297" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E297" s="32"/>
+    </row>
+    <row r="298" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A298" s="31"/>
+      <c r="B298" s="32"/>
+      <c r="C298" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C288" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A289" s="26"/>
-      <c r="B289" s="25"/>
-      <c r="C289" s="29" t="s">
+      <c r="D298" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E298" s="32"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="31"/>
+      <c r="B299" s="32"/>
+      <c r="E299" s="32"/>
+    </row>
+    <row r="300" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B300" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C300" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D300" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E300" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B301" s="32"/>
+      <c r="C301" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D301" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E301" s="32"/>
+    </row>
+    <row r="302" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B302" s="32"/>
+      <c r="C302" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D289" s="23" t="s">
+      <c r="D302" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A290" s="26"/>
-      <c r="B290" s="25"/>
-      <c r="C290" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A291" s="26"/>
-      <c r="B291" s="25"/>
-      <c r="C291" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D291" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A292" s="26"/>
-      <c r="B292" s="25"/>
-      <c r="C292" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D292" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="26"/>
-      <c r="B293" s="25"/>
-    </row>
-    <row r="294" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A294" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C294" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D294" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A295" s="26"/>
-      <c r="B295" s="25"/>
-      <c r="C295" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D295" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A296" s="26"/>
-      <c r="B296" s="25"/>
-      <c r="C296" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D296" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A297" s="26"/>
-      <c r="B297" s="25"/>
-      <c r="C297" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D297" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A298" s="26"/>
-      <c r="B298" s="25"/>
-      <c r="C298" s="31" t="s">
+      <c r="E302" s="32"/>
+    </row>
+    <row r="303" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B303" s="32"/>
+      <c r="C303" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E303" s="32"/>
+    </row>
+    <row r="304" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B304" s="32"/>
+      <c r="C304" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D298" s="23" t="s">
+      <c r="D304" s="23" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="26"/>
-      <c r="B299" s="25"/>
-    </row>
-    <row r="300" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A300" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B300" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C300" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D300" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C301" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D301" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C302" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D302" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C303" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D303" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C304" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D304" s="23" t="s">
-        <v>254</v>
-      </c>
+      <c r="E304" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A282:A287"/>
-    <mergeCell ref="B282:B287"/>
-    <mergeCell ref="A288:A293"/>
-    <mergeCell ref="B288:B293"/>
-    <mergeCell ref="A294:A299"/>
-    <mergeCell ref="B294:B299"/>
-    <mergeCell ref="B262:B267"/>
-    <mergeCell ref="A262:A267"/>
-    <mergeCell ref="B268:B273"/>
-    <mergeCell ref="A268:A273"/>
-    <mergeCell ref="A275:A280"/>
-    <mergeCell ref="B275:B280"/>
-    <mergeCell ref="A241:A246"/>
-    <mergeCell ref="B241:B246"/>
-    <mergeCell ref="A248:A253"/>
-    <mergeCell ref="B248:B253"/>
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="B255:B260"/>
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="B227:B232"/>
-    <mergeCell ref="B219:B225"/>
-    <mergeCell ref="A219:A225"/>
-    <mergeCell ref="A234:A239"/>
-    <mergeCell ref="B234:B239"/>
-    <mergeCell ref="A206:A211"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="A212:A218"/>
-    <mergeCell ref="B212:B218"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="A199:A204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B185:B190"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A178:A182"/>
+  <mergeCells count="134">
+    <mergeCell ref="B300:B304"/>
+    <mergeCell ref="E300:E304"/>
+    <mergeCell ref="E268:E273"/>
+    <mergeCell ref="E275:E280"/>
+    <mergeCell ref="E282:E287"/>
+    <mergeCell ref="E288:E293"/>
+    <mergeCell ref="E294:E299"/>
+    <mergeCell ref="E234:E239"/>
+    <mergeCell ref="E241:E246"/>
+    <mergeCell ref="E249:E254"/>
+    <mergeCell ref="E255:E260"/>
+    <mergeCell ref="E262:E267"/>
+    <mergeCell ref="E199:E204"/>
+    <mergeCell ref="E206:E211"/>
+    <mergeCell ref="E212:E218"/>
+    <mergeCell ref="E219:E225"/>
+    <mergeCell ref="E227:E232"/>
+    <mergeCell ref="E164:E168"/>
+    <mergeCell ref="E171:E176"/>
+    <mergeCell ref="E178:E183"/>
+    <mergeCell ref="E185:E190"/>
+    <mergeCell ref="E192:E197"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="E137:E142"/>
+    <mergeCell ref="E144:E149"/>
+    <mergeCell ref="E151:E156"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="E96:E101"/>
+    <mergeCell ref="E103:E108"/>
+    <mergeCell ref="E110:E115"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="E61:E66"/>
+    <mergeCell ref="E68:E73"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="E89:E94"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B115"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
     <mergeCell ref="A151:A156"/>
     <mergeCell ref="B151:B156"/>
     <mergeCell ref="A158:A162"/>
@@ -6102,46 +6882,1043 @@
     <mergeCell ref="B137:B142"/>
     <mergeCell ref="A144:A149"/>
     <mergeCell ref="B144:B149"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B115"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B185:B190"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="A206:A211"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="A212:A218"/>
+    <mergeCell ref="B212:B218"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="A199:A204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="B227:B232"/>
+    <mergeCell ref="B219:B225"/>
+    <mergeCell ref="A219:A225"/>
+    <mergeCell ref="A234:A239"/>
+    <mergeCell ref="B234:B239"/>
+    <mergeCell ref="A241:A246"/>
+    <mergeCell ref="B241:B246"/>
+    <mergeCell ref="A248:A253"/>
+    <mergeCell ref="B248:B253"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="B262:B267"/>
+    <mergeCell ref="A262:A267"/>
+    <mergeCell ref="B268:B273"/>
+    <mergeCell ref="A268:A273"/>
+    <mergeCell ref="A275:A280"/>
+    <mergeCell ref="B275:B280"/>
+    <mergeCell ref="A282:A287"/>
+    <mergeCell ref="B282:B287"/>
+    <mergeCell ref="A288:A293"/>
+    <mergeCell ref="B288:B293"/>
+    <mergeCell ref="A294:A299"/>
+    <mergeCell ref="B294:B299"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB991A3-B818-4EA6-96DB-7D5D970653AF}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF2CF12-CC48-4205-AC5F-54E6E48FBC3F}">
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.21875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="26"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="26"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="26"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E65" s="32"/>
+    </row>
+    <row r="66" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E67" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="E53:E59"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>